--- a/result/interactions_download/EXCEL/Burkitt_lymphoma_precog_mut.xlsx
+++ b/result/interactions_download/EXCEL/Burkitt_lymphoma_precog_mut.xlsx
@@ -36,30 +36,30 @@
     <t xml:space="preserve">CHD4</t>
   </si>
   <si>
+    <t xml:space="preserve">NON_ORF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORF</t>
   </si>
   <si>
-    <t xml:space="preserve">ECT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTA2</t>
-  </si>
-  <si>
     <t xml:space="preserve">FBXW7</t>
   </si>
   <si>
-    <t xml:space="preserve">NON_ORF</t>
+    <t xml:space="preserve">H2AFY</t>
   </si>
   <si>
     <t xml:space="preserve">KIF20A</t>
   </si>
   <si>
-    <t xml:space="preserve">H2AFY</t>
-  </si>
-  <si>
     <t xml:space="preserve">LCK</t>
   </si>
   <si>
@@ -84,84 +84,84 @@
     <t xml:space="preserve">MTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">MYO5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL11B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POF1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFATC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCF20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAF1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIK3CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARID4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD23B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEKHA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP1B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDH1B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLG1</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOTH</t>
   </si>
   <si>
-    <t xml:space="preserve">MYO5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL11B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POF1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASP8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFATC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FNBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCF20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAF1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIK3CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARID4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAD23B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLEKHA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD55</t>
+    <t xml:space="preserve">PPP1R9A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCG2</t>
   </si>
   <si>
     <t xml:space="preserve">CD2</t>
   </si>
   <si>
-    <t xml:space="preserve">ATP1B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALDH1B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPP1R9A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLCG2</t>
-  </si>
-  <si>
     <t xml:space="preserve">FOXA1</t>
   </si>
   <si>
@@ -171,21 +171,21 @@
     <t xml:space="preserve">MDM4</t>
   </si>
   <si>
+    <t xml:space="preserve">MYL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGNL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDH17</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLTCL1</t>
   </si>
   <si>
-    <t xml:space="preserve">MYL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLCB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGNL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDH17</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCLO</t>
   </si>
   <si>
@@ -195,54 +195,54 @@
     <t xml:space="preserve">EXOSC8</t>
   </si>
   <si>
+    <t xml:space="preserve">FYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTGDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAG1</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLC16A3</t>
   </si>
   <si>
-    <t xml:space="preserve">FYB</t>
+    <t xml:space="preserve">PLD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYRK1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR3C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEP1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENND2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLRC3</t>
   </si>
   <si>
     <t xml:space="preserve">KLF9</t>
   </si>
   <si>
-    <t xml:space="preserve">PTGDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYRK1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR3C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP1A</t>
+    <t xml:space="preserve">MYH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESDC2</t>
   </si>
   <si>
     <t xml:space="preserve">IGHA1</t>
   </si>
   <si>
-    <t xml:space="preserve">DENND2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLRC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTPRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MESDC2</t>
-  </si>
-  <si>
     <t xml:space="preserve">SNX8</t>
   </si>
   <si>
@@ -252,96 +252,96 @@
     <t xml:space="preserve">NEIL1</t>
   </si>
   <si>
+    <t xml:space="preserve">RTN1</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAST3</t>
   </si>
   <si>
-    <t xml:space="preserve">RTN1</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSGA10</t>
   </si>
   <si>
     <t xml:space="preserve">ATP11A</t>
   </si>
   <si>
+    <t xml:space="preserve">TRPC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDHB11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRPA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNAJC1</t>
   </si>
   <si>
+    <t xml:space="preserve">GK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSPA12A</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALDH2</t>
   </si>
   <si>
-    <t xml:space="preserve">TRPC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDHB11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRPA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMD1</t>
+    <t xml:space="preserve">NCF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP6V1H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIR3DL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCN10A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTN4IP1</t>
   </si>
   <si>
     <t xml:space="preserve">GCHFR</t>
   </si>
   <si>
-    <t xml:space="preserve">GK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSPA12A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCF1</t>
+    <t xml:space="preserve">ZNF20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD52</t>
   </si>
   <si>
     <t xml:space="preserve">TRIB2</t>
   </si>
   <si>
-    <t xml:space="preserve">ATP6V1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIR3DL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCN10A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTN4IP1</t>
+    <t xml:space="preserve">CTSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFN2</t>
   </si>
   <si>
     <t xml:space="preserve">NEK7</t>
   </si>
   <si>
-    <t xml:space="preserve">ZNF20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAD52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTSH</t>
-  </si>
-  <si>
     <t xml:space="preserve">RFTN1</t>
   </si>
   <si>
-    <t xml:space="preserve">MFN2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABCC3</t>
   </si>
   <si>
@@ -354,33 +354,33 @@
     <t xml:space="preserve">CST6</t>
   </si>
   <si>
+    <t xml:space="preserve">DMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPAN14</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOX15</t>
   </si>
   <si>
-    <t xml:space="preserve">DMD</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDC25B</t>
   </si>
   <si>
     <t xml:space="preserve">FBXO5</t>
   </si>
   <si>
-    <t xml:space="preserve">MCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSPAN14</t>
-  </si>
-  <si>
     <t xml:space="preserve">TYMS</t>
   </si>
   <si>
+    <t xml:space="preserve">CCNE2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEX264</t>
   </si>
   <si>
-    <t xml:space="preserve">CCNE2</t>
-  </si>
-  <si>
     <t xml:space="preserve">DGKG</t>
   </si>
   <si>
@@ -393,61 +393,61 @@
     <t xml:space="preserve">VGLL4</t>
   </si>
   <si>
+    <t xml:space="preserve">CX3CL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4HA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGAP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITPKB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL4A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTEL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">GFRA1</t>
   </si>
   <si>
-    <t xml:space="preserve">CX3CL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNFRSF9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4HA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARHGAP10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITPKB</t>
+    <t xml:space="preserve">KCNV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NXPH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLSTN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF8</t>
   </si>
   <si>
     <t xml:space="preserve">AGBL5</t>
   </si>
   <si>
-    <t xml:space="preserve">COL4A6</t>
+    <t xml:space="preserve">CD36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFHC1</t>
   </si>
   <si>
     <t xml:space="preserve">IRF9</t>
   </si>
   <si>
-    <t xml:space="preserve">RTEL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCNV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NXPH4</t>
-  </si>
-  <si>
     <t xml:space="preserve">ST6GALNAC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLSTN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRF8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFHC1</t>
   </si>
   <si>
     <t xml:space="preserve">SLA</t>
@@ -1040,13 +1040,13 @@
         <v>2.826</v>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
         <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>16.5</v>
+        <v>16.0147058823529</v>
       </c>
     </row>
     <row r="4">
@@ -1054,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>-2.162</v>
@@ -1071,22 +1071,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>2.033</v>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" t="n">
         <v>34</v>
       </c>
       <c r="F5" t="n">
-        <v>13.7619047619048</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="6">
@@ -1097,16 +1097,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.021</v>
+        <v>2.389</v>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>13.2987012987013</v>
+        <v>13.0909090909091</v>
       </c>
     </row>
     <row r="7">
@@ -1114,19 +1114,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.389</v>
+        <v>2.021</v>
       </c>
       <c r="D7" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>13.2244897959184</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1134,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>-2.758</v>
@@ -1174,19 +1174,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>1.996</v>
       </c>
       <c r="D10" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
         <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>11.9175257731959</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="11">
@@ -1194,7 +1194,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>-2.989</v>
@@ -1214,19 +1214,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>-2.173</v>
       </c>
       <c r="D12" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="n">
         <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>10.445652173913</v>
+        <v>10.2234042553191</v>
       </c>
     </row>
     <row r="13">
@@ -1234,19 +1234,19 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>2.028</v>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
         <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>8.68055555555556</v>
+        <v>8.44594594594595</v>
       </c>
     </row>
     <row r="14">
@@ -1260,13 +1260,13 @@
         <v>-2.582</v>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
         <v>22</v>
       </c>
       <c r="F14" t="n">
-        <v>7.9344262295082</v>
+        <v>7.80645161290323</v>
       </c>
     </row>
     <row r="15">
@@ -1274,27 +1274,27 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>2.167</v>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>7.24657534246575</v>
+        <v>7.14864864864865</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>-2.061</v>
@@ -1311,33 +1311,33 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2.066</v>
+        <v>-3.031</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>6.66666666666667</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.031</v>
+        <v>2.066</v>
       </c>
       <c r="D18" t="n">
         <v>16</v>
@@ -1351,30 +1351,30 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>-2.196</v>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>6.24390243902439</v>
+        <v>6.09523809523809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>2.132</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>2.398</v>
@@ -1411,10 +1411,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
         <v>-3.348</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
         <v>-3.255</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
         <v>2.123</v>
@@ -1491,10 +1491,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
         <v>-2.387</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
         <v>2.107</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
         <v>-2.334</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
         <v>-2.169</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
         <v>2.127</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1611,47 +1611,47 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.133</v>
+        <v>-2.751</v>
       </c>
       <c r="D32" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>4.26086956521739</v>
+        <v>4.24528301886792</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.751</v>
+        <v>-2.133</v>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" t="n">
-        <v>4.24528301886792</v>
+        <v>4.17021276595745</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1660,73 +1660,73 @@
         <v>2.782</v>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>4.05</v>
+        <v>3.85714285714286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.191</v>
+        <v>2.935</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>3.84313725490196</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>2.935</v>
+        <v>-2.582</v>
       </c>
       <c r="D36" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E36" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
-        <v>3.84313725490196</v>
+        <v>3.59574468085106</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
       <c r="C37" t="n">
-        <v>-2.582</v>
+        <v>2.066</v>
       </c>
       <c r="D37" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>3.67391304347826</v>
+        <v>3.36111111111111</v>
       </c>
     </row>
     <row r="38">
@@ -1737,16 +1737,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>2.066</v>
+        <v>2.696</v>
       </c>
       <c r="D38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38" t="n">
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>3.45714285714286</v>
+        <v>3.27027027027027</v>
       </c>
     </row>
     <row r="39">
@@ -1757,16 +1757,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>2.696</v>
+        <v>-3.051</v>
       </c>
       <c r="D39" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
-        <v>3.36111111111111</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="40">
@@ -1774,16 +1774,16 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>-3.051</v>
+        <v>-3.191</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>3.2</v>
@@ -1794,7 +1794,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
         <v>-1.97</v>
@@ -1814,7 +1814,7 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
         <v>2.612</v>
@@ -1834,7 +1834,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" t="n">
         <v>-2.094</v>
@@ -1854,19 +1854,19 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.184</v>
+        <v>2.747</v>
       </c>
       <c r="D44" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>2.89285714285714</v>
+        <v>2.76923076923077</v>
       </c>
     </row>
     <row r="45">
@@ -1874,19 +1874,19 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>2.747</v>
+        <v>2.337</v>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>2.76923076923077</v>
+        <v>2.72222222222222</v>
       </c>
     </row>
     <row r="46">
@@ -1894,10 +1894,10 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>2.337</v>
+        <v>-2.474</v>
       </c>
       <c r="D46" t="n">
         <v>18</v>
@@ -1914,10 +1914,10 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>-2.474</v>
+        <v>1.995</v>
       </c>
       <c r="D47" t="n">
         <v>18</v>
@@ -1934,19 +1934,19 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>1.995</v>
+        <v>-2.184</v>
       </c>
       <c r="D48" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>2.72222222222222</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="49">
@@ -1954,7 +1954,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
         <v>2.155</v>
@@ -1980,13 +1980,13 @@
         <v>-2.931</v>
       </c>
       <c r="D50" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>2.38095238095238</v>
+        <v>2.32558139534884</v>
       </c>
     </row>
     <row r="51">
@@ -2000,13 +2000,13 @@
         <v>2.174</v>
       </c>
       <c r="D51" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>2.31428571428571</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="52">
@@ -2014,19 +2014,19 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>-2.936</v>
+        <v>-2.162</v>
       </c>
       <c r="D52" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>2.28571428571429</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="53">
@@ -2034,10 +2034,10 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.162</v>
+        <v>-3.316</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
@@ -2054,16 +2054,16 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>2.2</v>
+        <v>-3.075</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>2.25</v>
@@ -2077,16 +2077,16 @@
         <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>-3.316</v>
+        <v>-2.936</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
-        <v>2.25</v>
+        <v>2.13333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -2094,19 +2094,19 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2.946</v>
+      </c>
+      <c r="D56" t="n">
         <v>12</v>
       </c>
-      <c r="C56" t="n">
-        <v>-3.075</v>
-      </c>
-      <c r="D56" t="n">
-        <v>16</v>
-      </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>2.25</v>
+        <v>2.08333333333333</v>
       </c>
     </row>
     <row r="57">
@@ -2114,19 +2114,19 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.946</v>
+        <v>-2.317</v>
       </c>
       <c r="D57" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>2.08333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2134,10 +2134,10 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.317</v>
+        <v>2.306</v>
       </c>
       <c r="D58" t="n">
         <v>8</v>
@@ -2154,16 +2154,16 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>2.306</v>
+        <v>-2.08</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>2</v>
@@ -2174,10 +2174,10 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.08</v>
+        <v>-2.848</v>
       </c>
       <c r="D60" t="n">
         <v>2</v>
@@ -2197,13 +2197,13 @@
         <v>9</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.617</v>
+        <v>-3.099</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
@@ -2214,19 +2214,19 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.848</v>
+        <v>2.2</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="63">
@@ -2234,19 +2234,19 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.099</v>
+        <v>2.019</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="64">
@@ -2254,10 +2254,10 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C64" t="n">
-        <v>2.019</v>
+        <v>-2.776</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
@@ -2274,10 +2274,10 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.776</v>
+        <v>-2.209</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -2294,19 +2294,19 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.209</v>
+        <v>2.763</v>
       </c>
       <c r="D66" t="n">
+        <v>14</v>
+      </c>
+      <c r="E66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="n">
-        <v>3</v>
-      </c>
       <c r="F66" t="n">
-        <v>1.8</v>
+        <v>1.78571428571429</v>
       </c>
     </row>
     <row r="67">
@@ -2317,16 +2317,16 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>2.763</v>
+        <v>-2.617</v>
       </c>
       <c r="D67" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>1.78571428571429</v>
+        <v>1.77777777777778</v>
       </c>
     </row>
     <row r="68">
@@ -2340,13 +2340,13 @@
         <v>-2.678</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="69">
@@ -2360,13 +2360,13 @@
         <v>-2.839</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="70">
@@ -2380,13 +2380,13 @@
         <v>-2.758</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="71">
@@ -2394,19 +2394,19 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>-2.596</v>
+        <v>-2.838</v>
       </c>
       <c r="D71" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>1.66666666666667</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="72">
@@ -2414,10 +2414,10 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.838</v>
+        <v>-2.596</v>
       </c>
       <c r="D72" t="n">
         <v>16</v>
@@ -2454,7 +2454,7 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
         <v>1.991</v>
@@ -2474,19 +2474,19 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C75" t="n">
-        <v>3.074</v>
+        <v>2.076</v>
       </c>
       <c r="D75" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>1.38461538461538</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="76">
@@ -2497,13 +2497,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.731</v>
+        <v>2.063</v>
       </c>
       <c r="D76" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>1.33333333333333</v>
@@ -2517,7 +2517,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>2.076</v>
+        <v>2.088</v>
       </c>
       <c r="D77" t="n">
         <v>3</v>
@@ -2534,16 +2534,16 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78" t="n">
-        <v>2.063</v>
+        <v>2.703</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>1.33333333333333</v>
@@ -2554,16 +2554,16 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>2.088</v>
+        <v>3.074</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>1.33333333333333</v>
@@ -2577,13 +2577,13 @@
         <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>2.703</v>
+        <v>-2.782</v>
       </c>
       <c r="D80" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>1.33333333333333</v>
@@ -2597,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="C81" t="n">
-        <v>-3.28</v>
+        <v>-2.773</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
@@ -2614,19 +2614,19 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.782</v>
+        <v>2.231</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>1.33333333333333</v>
+        <v>1.31578947368421</v>
       </c>
     </row>
     <row r="83">
@@ -2634,19 +2634,19 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.773</v>
+        <v>-2.731</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
-        <v>1.33333333333333</v>
+        <v>1.28571428571429</v>
       </c>
     </row>
     <row r="84">
@@ -2654,19 +2654,19 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>2.231</v>
+        <v>-3.335</v>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>1.31578947368421</v>
+        <v>1.28571428571429</v>
       </c>
     </row>
     <row r="85">
@@ -2677,16 +2677,16 @@
         <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>-3.335</v>
+        <v>-2.854</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>1.28571428571429</v>
+        <v>1.08695652173913</v>
       </c>
     </row>
     <row r="86">
@@ -2697,16 +2697,16 @@
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.663</v>
+        <v>2.541</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>1.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2714,19 +2714,19 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.854</v>
+        <v>-2.096</v>
       </c>
       <c r="D87" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>1.08695652173913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2734,16 +2734,16 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="n">
-        <v>2.541</v>
+        <v>2.305</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -2754,10 +2754,10 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>-2.096</v>
+        <v>-1.97</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2774,16 +2774,16 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>2.305</v>
+        <v>2.162</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -2794,10 +2794,10 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.97</v>
+        <v>-3.96</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -2814,16 +2814,16 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C92" t="n">
-        <v>2.162</v>
+        <v>-3.216</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -2834,16 +2834,16 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C93" t="n">
-        <v>-3.96</v>
+        <v>-3.28</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -2857,13 +2857,13 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>-3.216</v>
+        <v>-3.181</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>3.094</v>
+        <v>-2.773</v>
       </c>
       <c r="D95" t="n">
         <v>16</v>
@@ -2894,16 +2894,16 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>-3.181</v>
+        <v>-2.663</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -2917,13 +2917,13 @@
         <v>9</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.773</v>
+        <v>-2.799</v>
       </c>
       <c r="D97" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -2934,19 +2934,19 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>-2.799</v>
+        <v>2.003</v>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0.961538461538462</v>
       </c>
     </row>
     <row r="99">
@@ -2957,16 +2957,16 @@
         <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.614</v>
+        <v>3.094</v>
       </c>
       <c r="D99" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="100">
@@ -2974,19 +2974,19 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>2.003</v>
+        <v>-2.614</v>
       </c>
       <c r="D100" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>0.961538461538462</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="101">
@@ -2994,19 +2994,19 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
         <v>-2.328</v>
       </c>
       <c r="D101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>0.941176470588235</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="102">
@@ -3014,7 +3014,7 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C102" t="n">
         <v>-2.293</v>
@@ -3034,7 +3034,7 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C103" t="n">
         <v>-2.039</v>
@@ -3074,19 +3074,19 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.728</v>
+        <v>2.213</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8</v>
+        <v>0.727272727272727</v>
       </c>
     </row>
     <row r="106">
@@ -3094,19 +3094,19 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>2.213</v>
+        <v>2.708</v>
       </c>
       <c r="D106" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>0.761904761904762</v>
+        <v>0.692307692307692</v>
       </c>
     </row>
     <row r="107">
@@ -3114,19 +3114,19 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>2.694</v>
+        <v>-2.069</v>
       </c>
       <c r="D107" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="108">
@@ -3134,19 +3134,19 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C108" t="n">
-        <v>2.818</v>
+        <v>-2.728</v>
       </c>
       <c r="D108" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
-        <v>0.692307692307692</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="109">
@@ -3157,16 +3157,16 @@
         <v>9</v>
       </c>
       <c r="C109" t="n">
-        <v>2.708</v>
+        <v>2.694</v>
       </c>
       <c r="D109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>0.692307692307692</v>
+        <v>0.642857142857143</v>
       </c>
     </row>
     <row r="110">
@@ -3174,19 +3174,19 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.069</v>
+        <v>2.818</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="111">
@@ -3217,16 +3217,16 @@
         <v>9</v>
       </c>
       <c r="C112" t="n">
-        <v>2.595</v>
+        <v>3.51</v>
       </c>
       <c r="D112" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="113">
@@ -3237,16 +3237,16 @@
         <v>9</v>
       </c>
       <c r="C113" t="n">
-        <v>3.51</v>
+        <v>2.595</v>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>0.571428571428571</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="114">
@@ -3254,7 +3254,7 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C114" t="n">
         <v>-2.239</v>
@@ -3294,7 +3294,7 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C116" t="n">
         <v>-2.017</v>
@@ -3314,7 +3314,7 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C117" t="n">
         <v>-2.194</v>
@@ -3334,10 +3334,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>2.377</v>
+        <v>-3.065</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -3357,7 +3357,7 @@
         <v>9</v>
       </c>
       <c r="C119" t="n">
-        <v>-3.065</v>
+        <v>-2.787</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -3377,7 +3377,7 @@
         <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>-2.787</v>
+        <v>-2.612</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -3397,16 +3397,16 @@
         <v>9</v>
       </c>
       <c r="C121" t="n">
-        <v>-2.612</v>
+        <v>2.613</v>
       </c>
       <c r="D121" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" t="n">
         <v>2</v>
       </c>
-      <c r="E121" t="n">
-        <v>1</v>
-      </c>
       <c r="F121" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="122">
@@ -3414,19 +3414,19 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C122" t="n">
-        <v>2.613</v>
+        <v>2.392</v>
       </c>
       <c r="D122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="n">
         <v>2</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4</v>
+        <v>0.363636363636364</v>
       </c>
     </row>
     <row r="123">
@@ -3434,10 +3434,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C123" t="n">
-        <v>2.392</v>
+        <v>-2.78</v>
       </c>
       <c r="D123" t="n">
         <v>11</v>
@@ -3454,19 +3454,19 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>-2.78</v>
+        <v>2.045</v>
       </c>
       <c r="D124" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.363636363636364</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="125">
@@ -3474,16 +3474,16 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C125" t="n">
-        <v>2.232</v>
+        <v>-2.094</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
         <v>0.333333333333333</v>
@@ -3494,10 +3494,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C126" t="n">
-        <v>2.045</v>
+        <v>2.377</v>
       </c>
       <c r="D126" t="n">
         <v>3</v>
@@ -3517,7 +3517,7 @@
         <v>7</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.546</v>
+        <v>2.043</v>
       </c>
       <c r="D127" t="n">
         <v>3</v>
@@ -3534,16 +3534,16 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C128" t="n">
-        <v>-2.094</v>
+        <v>2.891</v>
       </c>
       <c r="D128" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
         <v>0.333333333333333</v>
@@ -3554,10 +3554,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C129" t="n">
-        <v>2.043</v>
+        <v>-2.722</v>
       </c>
       <c r="D129" t="n">
         <v>3</v>
@@ -3577,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>2.891</v>
+        <v>-2.676</v>
       </c>
       <c r="D130" t="n">
         <v>3</v>
@@ -3594,10 +3594,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>2.743</v>
+        <v>-2.745</v>
       </c>
       <c r="D131" t="n">
         <v>3</v>
@@ -3614,19 +3614,19 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.722</v>
+        <v>2.232</v>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133">
@@ -3634,19 +3634,19 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C133" t="n">
-        <v>-2.676</v>
+        <v>2.112</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134">
@@ -3654,19 +3654,19 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>-2.745</v>
+        <v>-2.096</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135">
@@ -3677,7 +3677,7 @@
         <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>2.112</v>
+        <v>-2.546</v>
       </c>
       <c r="D135" t="n">
         <v>4</v>
@@ -3694,10 +3694,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="n">
-        <v>-2.096</v>
+        <v>2.743</v>
       </c>
       <c r="D136" t="n">
         <v>4</v>
@@ -3754,7 +3754,7 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
         <v>2.157</v>
@@ -3774,7 +3774,7 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C140" t="n">
         <v>-2.329</v>
@@ -3794,7 +3794,7 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C141" t="n">
         <v>-1.96</v>
@@ -3900,13 +3900,13 @@
         <v>2.741</v>
       </c>
       <c r="D146" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
       </c>
       <c r="F146" t="n">
-        <v>0.19047619047619</v>
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="147">
@@ -3914,7 +3914,7 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
         <v>-2.723</v>
@@ -3954,7 +3954,7 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C149" t="n">
         <v>-2.642</v>
@@ -3980,13 +3980,13 @@
         <v>2.693</v>
       </c>
       <c r="D150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="151">
@@ -3994,19 +3994,19 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C151" t="n">
         <v>2.513</v>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.0714285714285714</v>
       </c>
     </row>
     <row r="152">
@@ -4034,7 +4034,7 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C153" t="n">
         <v>-1.996</v>
@@ -4054,7 +4054,7 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C154" t="n">
         <v>2.096</v>
@@ -4074,7 +4074,7 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C155" t="n">
         <v>2.065</v>
@@ -4094,13 +4094,13 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="n">
         <v>-2.025</v>
       </c>
       <c r="D156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C157" t="n">
         <v>-2.528</v>
@@ -4134,7 +4134,7 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C158" t="n">
         <v>-1.983</v>
@@ -4174,7 +4174,7 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" t="n">
         <v>2.287</v>
@@ -4194,7 +4194,7 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C161" t="n">
         <v>-2.051</v>
@@ -4214,7 +4214,7 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C162" t="n">
         <v>2.138</v>
@@ -4234,7 +4234,7 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C163" t="n">
         <v>2.126</v>
@@ -4254,7 +4254,7 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C164" t="n">
         <v>-1.976</v>
@@ -4274,7 +4274,7 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C165" t="n">
         <v>2.351</v>
@@ -4294,7 +4294,7 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C166" t="n">
         <v>2.064</v>
@@ -4314,7 +4314,7 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C167" t="n">
         <v>2.294</v>
@@ -4334,7 +4334,7 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C168" t="n">
         <v>2.097</v>
@@ -4354,7 +4354,7 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C169" t="n">
         <v>2.064</v>
@@ -4394,13 +4394,13 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" t="n">
         <v>-2.925</v>
       </c>
       <c r="D171" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C172" t="n">
         <v>-2.218</v>
@@ -4434,7 +4434,7 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C173" t="n">
         <v>2.478</v>
@@ -4454,7 +4454,7 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174" t="n">
         <v>2.023</v>
@@ -4474,7 +4474,7 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C175" t="n">
         <v>-2.242</v>
@@ -4494,13 +4494,13 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C176" t="n">
         <v>2.008</v>
       </c>
       <c r="D176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C177" t="n">
         <v>2.336</v>
@@ -4534,7 +4534,7 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C178" t="n">
         <v>-4.454</v>
@@ -4554,7 +4554,7 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C179" t="n">
         <v>-2.028</v>
@@ -4814,7 +4814,7 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C192" t="n">
         <v>-3.017</v>
@@ -4880,7 +4880,7 @@
         <v>-3.393</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C199" t="n">
         <v>-3.391</v>
@@ -4994,7 +4994,7 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C201" t="n">
         <v>-2.655</v>
@@ -5102,7 +5102,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -5110,7 +5110,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -5118,7 +5118,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -5126,7 +5126,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -5155,7 +5155,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -5163,10 +5163,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -5174,12 +5174,12 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -5187,31 +5187,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -5219,26 +5219,26 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
         <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="s">
         <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -5262,7 +5262,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -5275,7 +5275,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -5350,7 +5350,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -5366,7 +5366,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -5379,7 +5379,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -5390,15 +5390,15 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -5406,39 +5406,39 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
@@ -5446,15 +5446,15 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
@@ -5462,20 +5462,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -5486,7 +5486,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -5494,7 +5494,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -5502,7 +5502,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -5510,15 +5510,15 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
         <v>35</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="57">
@@ -5526,7 +5526,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
@@ -5534,44 +5534,44 @@
         <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s">
         <v>40</v>
@@ -5582,12 +5582,12 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -5595,18 +5595,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
@@ -5614,28 +5614,28 @@
         <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
         <v>47</v>
@@ -5643,18 +5643,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" t="s">
         <v>212</v>
-      </c>
-      <c r="B72" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -5662,7 +5662,7 @@
         <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -5675,18 +5675,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
@@ -5694,12 +5694,12 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
         <v>57</v>
@@ -5710,71 +5710,71 @@
         <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
         <v>61</v>
-      </c>
-      <c r="B82" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89">
@@ -5782,12 +5782,12 @@
         <v>212</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
         <v>76</v>
@@ -5795,10 +5795,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
@@ -5806,7 +5806,7 @@
         <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
@@ -5814,12 +5814,12 @@
         <v>212</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B95" t="s">
         <v>212</v>
@@ -5835,47 +5835,47 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
         <v>212</v>
@@ -5883,10 +5883,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
